--- a/生产任务单设计画面 160303.xlsx
+++ b/生产任务单设计画面 160303.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9383"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9383" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生产任务单" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="193">
   <si>
     <t>项目号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注：绿色标示，生产排程人员手动维护信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>添加排
 程明细</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -593,14 +589,6 @@
   </si>
   <si>
     <t>项目号/工程号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -704,34 +692,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">一、画面功能说明
-1. 创建添加生产排程功能
-1）单击”添加排程版本号“和“生产排程明细”进入”基本信息“先维护生产排程表头信息，如图（一），维护完成，然后单击”生产排程明细“，如图（二），然后系统根据生产任务单信息，如图（三），自动产生生产排程明细，排程明细信息可增加、修改、删除。
-2）单击”删除“，可设定生产排程表头与明细信息。
-3）单击”导入“，可导入生产排程表头及明细信息。
-4）单击”导出“，可导出生产排程表头及明细信息。
-2. 查询生产排程功能
-1）输入“生产排程版本号”查询其生产排程信息。
-2） 输入”排程开始日期与排程结束日期“，按回车，查询这边日期间段的生产排程信息。
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>添加机加工生产排程明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加排
-程明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加排
-程版本号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -851,12 +812,90 @@
     <t>4.库存数量 字段先为空，后续会从ERP中读取库存数据信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一、画面功能说明
+1. 创建添加生产排程功能
+1）单击”添加排程版本号“和“生产排程明细”进入”基本信息“先维护生产排程表头信息，如图（一），维护完成，然后单击”生产排程明细“，如图（二），然后系统根据生产任务单信息，如图（三），自动产生生产排程明细，排程明细信息可增加、修改、删除。
+2）单击”删除“，可设定生产排程表头与明细信息。
+3）单击”导入“，可导入生产排程表头及明细信息。
+4）单击”导出“，可导出生产排程表头及明细信息。
+2. 查询生产排程功能
+1）输入“生产排程版本号”查询其生产排程信息。
+2）输入”排程开始日期与排程结束日期“，按回车，查询日期间段的生产排程信息。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>机加工生产排程明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.前半部分信息从 “生产任务单表” 中读取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排程数量 应小于 数量字段； 精加工机台 取自基础表； 班次分为 "白班"/“晚班"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>图三为 “添加排程明细”弹出的选择框，内容取自</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“生产任务单表”</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精加工计划完工日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.绿色标示，生产排程人员可手动维护的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +1023,31 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1046,7 +1110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1568,13 +1632,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,19 +1917,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,12 +1932,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1932,9 +2022,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1943,6 +2030,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,9 +2148,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,29 +2166,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2109,24 +2211,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,6 +2228,42 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,6 +2367,451 @@
         <a:xfrm>
           <a:off x="1333500" y="12755563"/>
           <a:ext cx="1293813" cy="674688"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5924550"/>
+          <a:ext cx="889000" cy="681614"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531811</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="930274" y="11180762"/>
+          <a:ext cx="1641475" cy="681614"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>341313</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968876" y="6834188"/>
+          <a:ext cx="4064000" cy="277812"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61971"/>
+            <a:gd name="adj2" fmla="val 11072"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注：排程结束日期 应 大于排程开始日期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>531812</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7548562" y="16954500"/>
+          <a:ext cx="4064000" cy="277812"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2873"/>
+            <a:gd name="adj2" fmla="val 162501"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>两个日期框，表示查询日期区间内数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>55564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>271463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13566775" y="15978189"/>
+          <a:ext cx="3921125" cy="708024"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8541"/>
+            <a:gd name="adj2" fmla="val 114295"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认：将选择内容确认到“机加生产排程明细”中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取消：不进行处理，直接关闭当前界面退出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5611813"/>
+          <a:ext cx="1222375" cy="379988"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>32325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="10518775"/>
+          <a:ext cx="2046288" cy="379988"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2554,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2579,60 +3144,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="125"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="120"/>
     </row>
     <row r="2" spans="2:25" ht="226.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="128"/>
+      <c r="B2" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="123"/>
     </row>
     <row r="3" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
@@ -2690,11 +3255,11 @@
     </row>
     <row r="5" spans="2:25" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2737,10 +3302,10 @@
       <c r="S6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="144" t="s">
+      <c r="T6" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="145"/>
+      <c r="U6" s="140"/>
       <c r="V6" s="31" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +3321,7 @@
     </row>
     <row r="7" spans="2:25" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="69"/>
@@ -2769,15 +3334,15 @@
       <c r="K7" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="130"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="127"/>
       <c r="O7" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P7" s="68"/>
       <c r="Q7" s="71" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R7" s="73"/>
       <c r="S7" s="69"/>
@@ -2821,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>0</v>
@@ -2830,10 +3395,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>25</v>
@@ -2851,26 +3416,26 @@
         <v>22</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="P9" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="148"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="143"/>
     </row>
     <row r="10" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
@@ -2887,16 +3452,16 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="137"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="132"/>
     </row>
     <row r="11" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
@@ -2913,16 +3478,16 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="137"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="132"/>
     </row>
     <row r="12" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -2939,16 +3504,16 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="137"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="132"/>
     </row>
     <row r="13" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
@@ -2965,16 +3530,16 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="137"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="132"/>
     </row>
     <row r="14" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -2991,16 +3556,16 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="137"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="132"/>
     </row>
     <row r="15" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
@@ -3017,25 +3582,25 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="137"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="132"/>
     </row>
     <row r="16" spans="2:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -3088,23 +3653,23 @@
       <c r="B18" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="122" t="s">
-        <v>167</v>
+      <c r="C18" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="D18" s="13"/>
       <c r="F18" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="122" t="s">
-        <v>168</v>
+      <c r="G18" s="116" t="s">
+        <v>161</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="M18" s="13"/>
-      <c r="N18" s="122" t="s">
-        <v>170</v>
+      <c r="N18" s="116" t="s">
+        <v>163</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -3114,10 +3679,10 @@
         <v>19</v>
       </c>
       <c r="T18" s="13"/>
-      <c r="U18" s="122" t="s">
-        <v>171</v>
-      </c>
-      <c r="V18" s="122"/>
+      <c r="U18" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="V18" s="116"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="14"/>
@@ -3152,8 +3717,8 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="122" t="s">
-        <v>168</v>
+      <c r="C20" s="116" t="s">
+        <v>161</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3161,15 +3726,15 @@
         <v>9</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="13"/>
-      <c r="N20" s="122" t="s">
-        <v>172</v>
+      <c r="N20" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -3179,8 +3744,8 @@
         <v>24</v>
       </c>
       <c r="T20" s="13"/>
-      <c r="U20" s="122" t="s">
-        <v>173</v>
+      <c r="U20" s="116" t="s">
+        <v>166</v>
       </c>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
@@ -3216,15 +3781,15 @@
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="122" t="s">
-        <v>167</v>
+      <c r="C22" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="D22" s="13"/>
       <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="122" t="s">
-        <v>167</v>
+      <c r="G22" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -3233,8 +3798,8 @@
         <v>21</v>
       </c>
       <c r="M22" s="13"/>
-      <c r="N22" s="122" t="s">
-        <v>167</v>
+      <c r="N22" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -3244,8 +3809,8 @@
         <v>34</v>
       </c>
       <c r="T22" s="13"/>
-      <c r="U22" s="122" t="s">
-        <v>167</v>
+      <c r="U22" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
@@ -3282,15 +3847,15 @@
       <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="122" t="s">
-        <v>167</v>
+      <c r="C24" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="122" t="s">
-        <v>167</v>
+      <c r="F24" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -3305,11 +3870,11 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T24" s="13"/>
-      <c r="U24" s="122" t="s">
-        <v>167</v>
+      <c r="U24" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -3335,7 +3900,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="57" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -3404,7 +3969,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:25" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3432,11 +3997,11 @@
     </row>
     <row r="31" spans="2:25" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -3479,10 +4044,10 @@
       <c r="S32" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="T32" s="144" t="s">
+      <c r="T32" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="145"/>
+      <c r="U32" s="140"/>
       <c r="V32" s="31" t="s">
         <v>4</v>
       </c>
@@ -3498,7 +4063,7 @@
     </row>
     <row r="33" spans="2:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="69"/>
@@ -3511,15 +4076,15 @@
       <c r="K33" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="132"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="127"/>
       <c r="O33" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P33" s="68"/>
       <c r="Q33" s="71" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R33" s="73"/>
       <c r="S33" s="69"/>
@@ -3563,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>0</v>
@@ -3572,10 +4137,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>25</v>
@@ -3593,26 +4158,26 @@
         <v>22</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N35" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O35" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="P35" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="P35" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="148"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="143"/>
     </row>
     <row r="36" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
@@ -3629,18 +4194,18 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="136"/>
-      <c r="R36" s="136"/>
-      <c r="S36" s="136"/>
-      <c r="T36" s="136"/>
-      <c r="U36" s="136"/>
-      <c r="V36" s="136"/>
-      <c r="W36" s="136"/>
-      <c r="X36" s="136"/>
-      <c r="Y36" s="137"/>
-    </row>
-    <row r="37" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P36" s="130"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
+      <c r="U36" s="131"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="131"/>
+      <c r="X36" s="131"/>
+      <c r="Y36" s="132"/>
+    </row>
+    <row r="37" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -3655,18 +4220,18 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="136"/>
-      <c r="W37" s="136"/>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="137"/>
-    </row>
-    <row r="38" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P37" s="130"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="131"/>
+      <c r="X37" s="131"/>
+      <c r="Y37" s="132"/>
+    </row>
+    <row r="38" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -3681,18 +4246,18 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="136"/>
-      <c r="S38" s="136"/>
-      <c r="T38" s="136"/>
-      <c r="U38" s="136"/>
-      <c r="V38" s="136"/>
-      <c r="W38" s="136"/>
-      <c r="X38" s="136"/>
-      <c r="Y38" s="137"/>
-    </row>
-    <row r="39" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P38" s="130"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="131"/>
+      <c r="U38" s="131"/>
+      <c r="V38" s="131"/>
+      <c r="W38" s="131"/>
+      <c r="X38" s="131"/>
+      <c r="Y38" s="132"/>
+    </row>
+    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -3707,18 +4272,18 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="135"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="136"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="136"/>
-      <c r="U39" s="136"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="137"/>
-    </row>
-    <row r="40" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P39" s="130"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="131"/>
+      <c r="U39" s="131"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="131"/>
+      <c r="X39" s="131"/>
+      <c r="Y39" s="132"/>
+    </row>
+    <row r="40" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -3733,18 +4298,18 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="136"/>
-      <c r="U40" s="136"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="137"/>
-    </row>
-    <row r="41" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P40" s="130"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="131"/>
+      <c r="X40" s="131"/>
+      <c r="Y40" s="132"/>
+    </row>
+    <row r="41" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -3759,25 +4324,25 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="137"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
+      <c r="S41" s="131"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="131"/>
+      <c r="V41" s="131"/>
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="132"/>
     </row>
     <row r="42" spans="2:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="133" t="s">
+      <c r="C42" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="134"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -3835,7 +4400,7 @@
         <v>47</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N43" s="45" t="s">
         <v>46</v>
@@ -3853,10 +4418,10 @@
         <v>65</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U43" s="49" t="s">
         <v>67</v>
@@ -3895,20 +4460,20 @@
       <c r="K44" s="16"/>
       <c r="L44" s="76"/>
       <c r="M44" s="76"/>
-      <c r="N44" s="138" t="s">
-        <v>82</v>
-      </c>
-      <c r="O44" s="139"/>
-      <c r="P44" s="139"/>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="139"/>
-      <c r="S44" s="139"/>
-      <c r="T44" s="139"/>
-      <c r="U44" s="139"/>
-      <c r="V44" s="139"/>
-      <c r="W44" s="139"/>
-      <c r="X44" s="139"/>
-      <c r="Y44" s="140"/>
+      <c r="N44" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="135"/>
     </row>
     <row r="45" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B45" s="39">
@@ -3931,18 +4496,18 @@
       <c r="K45" s="16"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="142"/>
-      <c r="T45" s="142"/>
-      <c r="U45" s="142"/>
-      <c r="V45" s="142"/>
-      <c r="W45" s="142"/>
-      <c r="X45" s="142"/>
-      <c r="Y45" s="143"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="138"/>
     </row>
     <row r="46" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B46" s="39">
@@ -3970,15 +4535,15 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
-      <c r="S46" s="138" t="s">
+      <c r="S46" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="T46" s="139"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="139"/>
-      <c r="W46" s="139"/>
-      <c r="X46" s="139"/>
-      <c r="Y46" s="140"/>
+      <c r="T46" s="134"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="134"/>
+      <c r="W46" s="134"/>
+      <c r="X46" s="134"/>
+      <c r="Y46" s="135"/>
     </row>
     <row r="47" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B47" s="39">
@@ -4006,13 +4571,13 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
-      <c r="S47" s="141"/>
-      <c r="T47" s="142"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="142"/>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="143"/>
+      <c r="S47" s="136"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="138"/>
     </row>
     <row r="48" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B48" s="39">
@@ -4040,15 +4605,15 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
-      <c r="S48" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="T48" s="139"/>
-      <c r="U48" s="139"/>
-      <c r="V48" s="139"/>
-      <c r="W48" s="139"/>
-      <c r="X48" s="139"/>
-      <c r="Y48" s="140"/>
+      <c r="S48" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="T48" s="134"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="134"/>
+      <c r="W48" s="134"/>
+      <c r="X48" s="134"/>
+      <c r="Y48" s="135"/>
     </row>
     <row r="49" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B49" s="39">
@@ -4076,13 +4641,13 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
-      <c r="S49" s="141"/>
-      <c r="T49" s="142"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="142"/>
-      <c r="W49" s="142"/>
-      <c r="X49" s="142"/>
-      <c r="Y49" s="143"/>
+      <c r="S49" s="136"/>
+      <c r="T49" s="137"/>
+      <c r="U49" s="137"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="137"/>
+      <c r="X49" s="137"/>
+      <c r="Y49" s="138"/>
     </row>
     <row r="50" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="40"/>
@@ -4193,22 +4758,22 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:25" ht="12.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4250,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA69"/>
+  <dimension ref="B1:AA75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4271,7 +4836,7 @@
     <col min="14" max="14" width="7.53125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.53125" customWidth="1"/>
     <col min="16" max="16" width="9.1328125" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.19921875" customWidth="1"/>
     <col min="19" max="19" width="10.19921875" customWidth="1"/>
     <col min="20" max="20" width="7.53125" customWidth="1"/>
@@ -4280,60 +4845,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="125"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="120"/>
     </row>
     <row r="2" spans="2:22" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="128"/>
+      <c r="B2" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="123"/>
     </row>
     <row r="3" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="151"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -4379,12 +4944,12 @@
     </row>
     <row r="5" spans="2:22" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -4417,12 +4982,12 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="160"/>
+      <c r="P6" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="155"/>
       <c r="R6" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S6" s="31" t="s">
         <v>4</v>
@@ -4439,36 +5004,36 @@
     </row>
     <row r="7" spans="2:22" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="69"/>
       <c r="I7" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="31" t="s">
+      <c r="L7" s="145"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="162"/>
-    </row>
-    <row r="8" spans="2:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="145"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="156"/>
+    </row>
+    <row r="8" spans="2:22" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -4496,10 +5061,10 @@
         <v>56</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>25</v>
@@ -4507,24 +5072,24 @@
       <c r="F9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="154"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="149"/>
     </row>
     <row r="10" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
@@ -4532,22 +5097,22 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="132"/>
     </row>
     <row r="11" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
@@ -4555,22 +5120,22 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="137"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="132"/>
     </row>
     <row r="12" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -4578,22 +5143,22 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="137"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="132"/>
     </row>
     <row r="13" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
@@ -4601,22 +5166,22 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="137"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="132"/>
     </row>
     <row r="14" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -4624,54 +5189,54 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="137"/>
-    </row>
-    <row r="15" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="132"/>
+    </row>
+    <row r="15" spans="2:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="137"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="132"/>
     </row>
     <row r="16" spans="2:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="149"/>
+      <c r="C16" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="193"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -4691,7 +5256,7 @@
       <c r="U16" s="51"/>
       <c r="V16" s="52"/>
     </row>
-    <row r="17" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -4719,22 +5284,28 @@
         <v>69</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="116" t="s">
+        <v>160</v>
+      </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="116" t="s">
+        <v>163</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="116" t="s">
+        <v>164</v>
+      </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -4751,7 +5322,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="5"/>
@@ -4772,27 +5343,31 @@
     </row>
     <row r="20" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="116" t="s">
+        <v>166</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="116" t="s">
+        <v>166</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -4828,20 +5403,22 @@
       <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="161"/>
+      <c r="C22" s="185" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="187"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -4849,7 +5426,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="14"/>
     </row>
-    <row r="23" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -4919,10 +5496,10 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="156"/>
+      <c r="C26" s="151"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -4968,12 +5545,12 @@
     </row>
     <row r="28" spans="2:22" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
-      <c r="C28" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="C28" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -5006,12 +5583,12 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q29" s="160"/>
+      <c r="P29" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="155"/>
       <c r="R29" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S29" s="31" t="s">
         <v>4</v>
@@ -5028,36 +5605,36 @@
     </row>
     <row r="30" spans="2:22" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B30" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
       <c r="F30" s="69"/>
       <c r="G30" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="69"/>
       <c r="K30" s="69"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="147"/>
       <c r="Q30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R30" s="150"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="162"/>
-    </row>
-    <row r="31" spans="2:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="145"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="156"/>
+    </row>
+    <row r="31" spans="2:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -5085,10 +5662,10 @@
         <v>56</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>25</v>
@@ -5096,171 +5673,171 @@
       <c r="F32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="144" t="s">
+      <c r="G32" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="154"/>
-    </row>
-    <row r="33" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="149"/>
+    </row>
+    <row r="33" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="136"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="137"/>
-    </row>
-    <row r="34" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="132"/>
+    </row>
+    <row r="34" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="136"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="136"/>
-      <c r="U34" s="136"/>
-      <c r="V34" s="137"/>
-    </row>
-    <row r="35" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G34" s="130"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="131"/>
+      <c r="U34" s="131"/>
+      <c r="V34" s="132"/>
+    </row>
+    <row r="35" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="136"/>
-      <c r="U35" s="136"/>
-      <c r="V35" s="137"/>
-    </row>
-    <row r="36" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="132"/>
+    </row>
+    <row r="36" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="136"/>
-      <c r="R36" s="136"/>
-      <c r="S36" s="136"/>
-      <c r="T36" s="136"/>
-      <c r="U36" s="136"/>
-      <c r="V36" s="137"/>
-    </row>
-    <row r="37" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G36" s="130"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
+      <c r="U36" s="131"/>
+      <c r="V36" s="132"/>
+    </row>
+    <row r="37" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="137"/>
-    </row>
-    <row r="38" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="132"/>
+    </row>
+    <row r="38" spans="2:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="136"/>
-      <c r="S38" s="136"/>
-      <c r="T38" s="136"/>
-      <c r="U38" s="136"/>
-      <c r="V38" s="137"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="131"/>
+      <c r="U38" s="131"/>
+      <c r="V38" s="132"/>
     </row>
     <row r="39" spans="2:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="149"/>
+      <c r="C39" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="193"/>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -5297,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H40" s="45" t="s">
         <v>36</v>
@@ -5309,31 +5886,31 @@
         <v>62</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L40" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M40" s="45" t="s">
         <v>60</v>
       </c>
       <c r="N40" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O40" s="45" t="s">
         <v>61</v>
       </c>
       <c r="P40" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="45" t="s">
-        <v>91</v>
-      </c>
       <c r="R40" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="S40" s="49" t="s">
         <v>86</v>
-      </c>
-      <c r="S40" s="49" t="s">
-        <v>87</v>
       </c>
       <c r="T40" s="45" t="s">
         <v>37</v>
@@ -5342,7 +5919,7 @@
         <v>45</v>
       </c>
       <c r="V40" s="46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:22" ht="15" x14ac:dyDescent="0.3">
@@ -5354,7 +5931,7 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>17</v>
@@ -5370,11 +5947,11 @@
         <v>2</v>
       </c>
       <c r="M41" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N41" s="76"/>
       <c r="O41" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P41" s="76">
         <v>42491</v>
@@ -5384,9 +5961,9 @@
       </c>
       <c r="R41" s="76"/>
       <c r="S41" s="76"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
     </row>
     <row r="42" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B42" s="39">
@@ -5397,7 +5974,7 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>17</v>
@@ -5413,11 +5990,11 @@
         <v>4</v>
       </c>
       <c r="M42" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N42" s="76"/>
       <c r="O42" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P42" s="76">
         <v>42491</v>
@@ -5427,11 +6004,11 @@
       </c>
       <c r="R42" s="76"/>
       <c r="S42" s="76"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-    </row>
-    <row r="43" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+    </row>
+    <row r="43" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B43" s="39">
         <v>3</v>
       </c>
@@ -5458,11 +6035,11 @@
       <c r="Q43" s="76"/>
       <c r="R43" s="76"/>
       <c r="S43" s="76"/>
-      <c r="T43" s="83"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-    </row>
-    <row r="44" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+    </row>
+    <row r="44" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B44" s="39">
         <v>4</v>
       </c>
@@ -5487,11 +6064,11 @@
       <c r="Q44" s="76"/>
       <c r="R44" s="76"/>
       <c r="S44" s="76"/>
-      <c r="T44" s="83"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-    </row>
-    <row r="45" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+    </row>
+    <row r="45" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B45" s="39">
         <v>5</v>
       </c>
@@ -5518,11 +6095,11 @@
       <c r="Q45" s="76"/>
       <c r="R45" s="76"/>
       <c r="S45" s="76"/>
-      <c r="T45" s="83"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-    </row>
-    <row r="46" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+    </row>
+    <row r="46" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B46" s="39">
         <v>6</v>
       </c>
@@ -5549,11 +6126,11 @@
       <c r="Q46" s="76"/>
       <c r="R46" s="76"/>
       <c r="S46" s="76"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-    </row>
-    <row r="47" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+    </row>
+    <row r="47" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -5572,11 +6149,11 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="76"/>
       <c r="S47" s="76"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-    </row>
-    <row r="48" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+    </row>
+    <row r="48" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B48" s="39"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -5595,678 +6172,722 @@
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-    </row>
-    <row r="49" spans="2:27" ht="16.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="86"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="87"/>
-      <c r="V49" s="87"/>
-    </row>
-    <row r="51" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B51" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="M52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="155" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="156"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="2:27" ht="33" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="90"/>
-    </row>
-    <row r="55" spans="2:27" ht="19.149999999999999" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="6"/>
-    </row>
-    <row r="56" spans="2:27" ht="34.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="146" t="s">
-        <v>165</v>
-      </c>
-      <c r="X56" s="160"/>
-      <c r="Y56" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z56" s="160"/>
-      <c r="AA56" s="114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="72" t="s">
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+    </row>
+    <row r="49" spans="2:27" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="83"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+    </row>
+    <row r="51" spans="2:27" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B51" s="183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="183"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="M51" s="184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B52" s="183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="183"/>
+    </row>
+    <row r="53" spans="2:27" s="184" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+    </row>
+    <row r="54" spans="2:27" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="184" t="s">
+        <v>186</v>
+      </c>
+      <c r="M54" s="184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" s="184" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="183"/>
+    </row>
+    <row r="56" spans="2:27" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M56" s="184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" s="184" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="183"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="183"/>
+    </row>
+    <row r="58" spans="2:27" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" s="184" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="151"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="2:27" ht="33" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="84"/>
+      <c r="X60" s="84"/>
+      <c r="Y60" s="84"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="85"/>
+    </row>
+    <row r="61" spans="2:27" ht="19.149999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="2:27" ht="34.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="141"/>
+      <c r="X62" s="155"/>
+      <c r="Y62" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z62" s="155"/>
+      <c r="AA62" s="109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" ht="36.4" x14ac:dyDescent="0.3">
+      <c r="B63" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="71" t="s">
+      <c r="H63" s="145"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" s="69"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="N63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63" s="191" t="s">
+        <v>189</v>
+      </c>
+      <c r="R63" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="S63" s="189"/>
+      <c r="T63" s="190"/>
+      <c r="U63" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="V63" s="114"/>
+      <c r="W63" s="114"/>
+      <c r="X63" s="114"/>
+      <c r="Y63" s="114"/>
+      <c r="Z63" s="114"/>
+      <c r="AA63" s="115"/>
+    </row>
+    <row r="64" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B64" s="157"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="158"/>
+      <c r="S64" s="158"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="158"/>
+      <c r="W64" s="158"/>
+      <c r="X64" s="158"/>
+      <c r="Y64" s="158"/>
+      <c r="Z64" s="158"/>
+      <c r="AA64" s="159"/>
+    </row>
+    <row r="65" spans="2:27" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="129"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="160"/>
+      <c r="O65" s="160"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="160"/>
+      <c r="R65" s="160"/>
+      <c r="S65" s="160"/>
+      <c r="T65" s="160"/>
+      <c r="U65" s="160"/>
+      <c r="V65" s="160"/>
+      <c r="W65" s="160"/>
+      <c r="X65" s="160"/>
+      <c r="Y65" s="160"/>
+      <c r="Z65" s="160"/>
+      <c r="AA65" s="161"/>
+    </row>
+    <row r="66" spans="2:27" ht="45" x14ac:dyDescent="0.3">
+      <c r="B66" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="H57" s="150"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="69" t="s">
+      <c r="F66" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="P66" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="R66" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="S66" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="U66" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="K57" s="69"/>
-      <c r="L57" s="168"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="168"/>
-      <c r="P57" s="168"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="121"/>
-    </row>
-    <row r="58" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B58" s="163"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="164"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="164"/>
-      <c r="P58" s="164"/>
-      <c r="Q58" s="164"/>
-      <c r="R58" s="164"/>
-      <c r="S58" s="164"/>
-      <c r="T58" s="164"/>
-      <c r="U58" s="164"/>
-      <c r="V58" s="164"/>
-      <c r="W58" s="164"/>
-      <c r="X58" s="164"/>
-      <c r="Y58" s="164"/>
-      <c r="Z58" s="164"/>
-      <c r="AA58" s="165"/>
-    </row>
-    <row r="59" spans="2:27" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="166"/>
-      <c r="P59" s="166"/>
-      <c r="Q59" s="166"/>
-      <c r="R59" s="166"/>
-      <c r="S59" s="166"/>
-      <c r="T59" s="166"/>
-      <c r="U59" s="166"/>
-      <c r="V59" s="166"/>
-      <c r="W59" s="166"/>
-      <c r="X59" s="166"/>
-      <c r="Y59" s="166"/>
-      <c r="Z59" s="166"/>
-      <c r="AA59" s="167"/>
-    </row>
-    <row r="60" spans="2:27" ht="45" x14ac:dyDescent="0.3">
-      <c r="B60" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="P60" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q60" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="R60" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="S60" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="T60" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="U60" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="V60" s="45" t="s">
+      <c r="V66" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="W66" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="W60" s="45" t="s">
+      <c r="X66" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="X60" s="45" t="s">
+      <c r="Y66" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Y60" s="45" t="s">
+      <c r="Z66" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Z60" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA60" s="46" t="s">
+      <c r="AA66" s="46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B61" s="39">
+    <row r="67" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B67" s="39">
         <v>1</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D67" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="17"/>
-    </row>
-    <row r="62" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B62" s="39">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="17"/>
+    </row>
+    <row r="68" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B68" s="39">
         <v>2</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16" t="s">
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G68" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="17"/>
-    </row>
-    <row r="63" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B63" s="39">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="17"/>
+    </row>
+    <row r="69" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B69" s="39">
         <v>3</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G69" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="17"/>
-    </row>
-    <row r="64" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B64" s="39">
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="17"/>
+    </row>
+    <row r="70" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B70" s="39">
         <v>4</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16" t="s">
+      <c r="E70" s="16"/>
+      <c r="F70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="17"/>
-    </row>
-    <row r="65" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B65" s="39">
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="17"/>
+    </row>
+    <row r="71" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B71" s="39">
         <v>5</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
+      <c r="E71" s="16"/>
+      <c r="F71" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="17"/>
-    </row>
-    <row r="66" spans="2:27" ht="15" x14ac:dyDescent="0.3">
-      <c r="B66" s="39">
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="17"/>
+    </row>
+    <row r="72" spans="2:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B72" s="39">
         <v>6</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
+      <c r="E72" s="16"/>
+      <c r="F72" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="17"/>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B67" s="40"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="7"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="7"/>
-    </row>
-    <row r="69" spans="2:27" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="41"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="9"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="17"/>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B73" s="40"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="7"/>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B74" s="40"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="7"/>
+    </row>
+    <row r="75" spans="2:27" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="41"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:AA58"/>
-    <mergeCell ref="F59:AA59"/>
-    <mergeCell ref="L57:P57"/>
+  <mergeCells count="39">
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:AA64"/>
+    <mergeCell ref="F65:AA65"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="S63:T63"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="G38:V38"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C22:P22"/>
@@ -6297,6 +6918,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6304,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:N52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6313,49 +6935,49 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="7" max="7" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1328125" customWidth="1"/>
-    <col min="14" max="14" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="22.9" x14ac:dyDescent="0.3">
-      <c r="B1" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
+      <c r="B1" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
     </row>
     <row r="2" spans="2:21" ht="174.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="185" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
+      <c r="B2" s="178" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="180"/>
       <c r="O2" s="64"/>
       <c r="P2" s="64"/>
       <c r="Q2" s="64"/>
@@ -6365,21 +6987,21 @@
       <c r="U2" s="64"/>
     </row>
     <row r="3" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="184" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
+      <c r="B3" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="177"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
     </row>
     <row r="4" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -6399,11 +7021,11 @@
     <row r="5" spans="2:21" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
+      <c r="D5" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -6422,7 +7044,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>77</v>
@@ -6441,7 +7063,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -6459,196 +7081,196 @@
       <c r="B8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84" t="s">
-        <v>133</v>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81" t="s">
+        <v>132</v>
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="69"/>
       <c r="I8" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="162"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="156"/>
     </row>
     <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.3">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="100" t="s">
+      <c r="G9" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="182"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="90">
+        <v>1</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="90">
+        <v>2</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="111"/>
+    </row>
+    <row r="12" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="90">
+        <v>3</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="111"/>
+    </row>
+    <row r="13" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="90">
+        <v>4</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="111"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="90">
+        <v>5</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="111"/>
+    </row>
+    <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="90">
+        <v>6</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="111"/>
+    </row>
+    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="90">
+        <v>7</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="189"/>
-    </row>
-    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="95">
-        <v>1</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
-    </row>
-    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="95">
-        <v>2</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
-    </row>
-    <row r="12" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="95">
-        <v>3</v>
-      </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
-    </row>
-    <row r="13" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="95">
-        <v>4</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-    </row>
-    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="95">
-        <v>5</v>
-      </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-    </row>
-    <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="95">
-        <v>6</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-    </row>
-    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
-        <v>7</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="105"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="100"/>
     </row>
     <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="103"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -6664,21 +7286,21 @@
     </row>
     <row r="19" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="16"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="5"/>
       <c r="J19" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
@@ -6691,7 +7313,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="5"/>
@@ -6700,18 +7322,18 @@
       <c r="K20" s="57"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="106"/>
+      <c r="N20" s="101"/>
     </row>
     <row r="21" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="16"/>
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
       <c r="G21" s="13" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="5"/>
@@ -6743,14 +7365,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="102"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="62"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="13"/>
@@ -6773,10 +7395,10 @@
       <c r="N24" s="60"/>
     </row>
     <row r="26" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="184" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="184"/>
+      <c r="B26" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="177"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
@@ -6798,11 +7420,11 @@
     <row r="28" spans="2:14" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="D28" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -6821,7 +7443,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>77</v>
@@ -6840,7 +7462,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
       <c r="E30" s="74"/>
@@ -6858,756 +7480,754 @@
       <c r="B31" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84" t="s">
-        <v>133</v>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81" t="s">
+        <v>132</v>
       </c>
       <c r="G31" s="68"/>
       <c r="H31" s="69"/>
       <c r="I31" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="69"/>
       <c r="K31" s="71"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="162"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="156"/>
     </row>
     <row r="32" spans="2:14" ht="30" x14ac:dyDescent="0.3">
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="100" t="s">
+      <c r="F32" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="100" t="s">
+      <c r="G32" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="182"/>
+    </row>
+    <row r="33" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B33" s="90">
+        <v>1</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="111"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B34" s="90">
+        <v>2</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="111"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B35" s="90">
+        <v>3</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="111"/>
+    </row>
+    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B36" s="90">
+        <v>4</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="111"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B37" s="90">
+        <v>5</v>
+      </c>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="111"/>
+    </row>
+    <row r="38" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B38" s="90">
+        <v>6</v>
+      </c>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="111"/>
+    </row>
+    <row r="39" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B39" s="90">
+        <v>7</v>
+      </c>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="111"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="189"/>
-    </row>
-    <row r="33" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B33" s="95">
-        <v>1</v>
-      </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="116"/>
-    </row>
-    <row r="34" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B34" s="95">
-        <v>2</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-    </row>
-    <row r="35" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B35" s="95">
-        <v>3</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
-    </row>
-    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B36" s="95">
-        <v>4</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="116"/>
-    </row>
-    <row r="37" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B37" s="95">
-        <v>5</v>
-      </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="116"/>
-    </row>
-    <row r="38" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B38" s="95">
-        <v>6</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
-    </row>
-    <row r="39" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B39" s="95">
-        <v>7</v>
-      </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
-    </row>
-    <row r="40" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="105"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14" ht="45" x14ac:dyDescent="0.3">
       <c r="B41" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="174"/>
+      <c r="H41" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="I41" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="J41" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="182" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="183"/>
-      <c r="H41" s="45" t="s">
+      <c r="K41" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="L41" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="M41" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="K41" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>150</v>
       </c>
       <c r="N41" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B42" s="170">
+      <c r="B42" s="167">
         <v>1</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="112" t="s">
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="112" t="s">
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
+    </row>
+    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B43" s="168"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-    </row>
-    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B43" s="171"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+    </row>
+    <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B44" s="167">
+        <v>2</v>
+      </c>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+    </row>
+    <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B45" s="168"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-    </row>
-    <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B44" s="170">
+      <c r="G45" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+    </row>
+    <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B46" s="167">
+        <v>3</v>
+      </c>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="163"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
+    </row>
+    <row r="47" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B47" s="168"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="164"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+    </row>
+    <row r="48" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B48" s="167">
+        <v>4</v>
+      </c>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="163"/>
+      <c r="L48" s="163"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+    </row>
+    <row r="49" spans="2:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="B49" s="168"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="164"/>
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+    </row>
+    <row r="52" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="165"/>
+    </row>
+    <row r="53" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.3">
+      <c r="B53" s="166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="166"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="166"/>
+    </row>
+    <row r="54" spans="2:14" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" s="162"/>
+      <c r="L54" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="N54" s="87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="162">
+        <v>1</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="162"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="88"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="162"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="162"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="88"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="162">
         <v>2</v>
       </c>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="112" t="s">
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="112" t="s">
+      <c r="L57" s="162"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="88"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="162"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-    </row>
-    <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B45" s="171"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="112" t="s">
+      <c r="K58" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="162"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="88"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="162">
+        <v>3</v>
+      </c>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="162"/>
+      <c r="M59" s="86"/>
+      <c r="N59" s="88"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="162"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-    </row>
-    <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B46" s="170">
-        <v>3</v>
-      </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="112" t="s">
+      <c r="K60" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="L60" s="162"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="88"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="162">
+        <v>4</v>
+      </c>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" s="162"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="88"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="162"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="172"/>
-      <c r="K46" s="172"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="172"/>
-      <c r="N46" s="172"/>
-    </row>
-    <row r="47" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B47" s="171"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173"/>
-      <c r="F47" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="112" t="s">
+      <c r="K62" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="162"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="88"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="170">
+        <v>5</v>
+      </c>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K63" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="162"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="88"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="171"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="173"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="173"/>
-      <c r="N47" s="173"/>
-    </row>
-    <row r="48" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B48" s="170">
-        <v>4</v>
-      </c>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="172"/>
-      <c r="F48" s="112" t="s">
+      <c r="K64" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="112" t="s">
+      <c r="L64" s="162"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="88"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="170">
+        <v>6</v>
+      </c>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="162"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="162"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="88"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="171"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="162"/>
+      <c r="J66" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="172"/>
-      <c r="K48" s="172"/>
-      <c r="L48" s="172"/>
-      <c r="M48" s="172"/>
-      <c r="N48" s="172"/>
-    </row>
-    <row r="49" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B49" s="171"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="F49" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="112" t="s">
+      <c r="K66" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" s="162"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="88"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="172">
+        <v>7</v>
+      </c>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-    </row>
-    <row r="52" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B52" s="174" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174"/>
-      <c r="M52" s="174"/>
-      <c r="N52" s="174"/>
-    </row>
-    <row r="53" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.3">
-      <c r="B53" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
-    </row>
-    <row r="54" spans="2:14" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B54" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="J54" s="169" t="s">
-        <v>126</v>
-      </c>
-      <c r="K54" s="169"/>
-      <c r="L54" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="M54" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="N54" s="92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="169">
-        <v>1</v>
-      </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="91" t="s">
+      <c r="K67" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="91" t="s">
+      <c r="L67" s="169"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="88"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="172"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="162"/>
+      <c r="H68" s="162"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="L55" s="169"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="93"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="169"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="169"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="93"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="169">
-        <v>2</v>
-      </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="91" t="s">
+      <c r="K68" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L57" s="169"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="93"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="169"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="169"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L58" s="169"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="93"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="169">
-        <v>3</v>
-      </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="169"/>
-      <c r="I59" s="169"/>
-      <c r="J59" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="K59" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L59" s="169"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="93"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="169"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="169"/>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169"/>
-      <c r="J60" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K60" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L60" s="169"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="93"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="169">
-        <v>4</v>
-      </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L61" s="169"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="93"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="169"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K62" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L62" s="169"/>
-      <c r="M62" s="91"/>
-      <c r="N62" s="93"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="180">
-        <v>5</v>
-      </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="K63" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L63" s="169"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="93"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="181"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L64" s="169"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="93"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="180">
-        <v>6</v>
-      </c>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="K65" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L65" s="169"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="93"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="181"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="169"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K66" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L66" s="169"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="93"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="178">
-        <v>7</v>
-      </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="179"/>
-      <c r="H67" s="179"/>
-      <c r="I67" s="179"/>
-      <c r="J67" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K67" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L67" s="179"/>
-      <c r="M67" s="91"/>
-      <c r="N67" s="93"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="178"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K68" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L68" s="169"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="93"/>
+      <c r="L68" s="162"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="J44:J45"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J32:N32"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="N46:N47"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="M48:M49"/>
     <mergeCell ref="N48:N49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B1:N1"/>
@@ -7615,57 +8235,64 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="J9:N9"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="L61:L62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
     <mergeCell ref="L67:L68"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="L65:L66"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="H67:H68"/>
     <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="H46:H47"/>
     <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="L59:L60"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="L57:L58"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="L55:L56"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="B52:N52"/>
     <mergeCell ref="B53:N53"/>
@@ -7681,13 +8308,9 @@
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="J46:J47"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="L55:L56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>